--- a/msff/xls/fa2fone{recoll.xlsx
+++ b/msff/xls/fa2fone{recoll.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4943DC-454F-4953-9738-8D3D43708DB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594A2A4-72D4-481B-91F4-5A88A9E95D4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27720" yWindow="9510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2580" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="ddd\,d/mmm/yy"/>
+    <numFmt numFmtId="164" formatCode="ddd\,d/mmm/yy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,14 +153,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -446,7 +446,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
-        <v>44277</v>
+        <v>44271</v>
       </c>
       <c r="E6" s="2">
         <v>44320</v>
@@ -574,8 +574,8 @@
         <v>11</v>
       </c>
       <c r="H6" s="5">
-        <f>D6</f>
-        <v>44277</v>
+        <f t="shared" ref="H6:H11" si="0">D6</f>
+        <v>44271</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -593,7 +593,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>44307</v>
       </c>
       <c r="I7" s="1"/>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="5">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>44312</v>
       </c>
       <c r="I8" s="1"/>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="5">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>44317</v>
       </c>
       <c r="I9" s="1"/>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="5">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>44319</v>
       </c>
       <c r="I10" s="1"/>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="5">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>44324</v>
       </c>
       <c r="I11" s="1"/>
